--- a/sec_course/Анализ данных/Иванов Дмитрий, ИВТ2, ЛР4.xlsx
+++ b/sec_course/Анализ данных/Иванов Дмитрий, ИВТ2, ЛР4.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dima-\Documents\GitHub\DementedJim.github.io\sec_course\Анализ данных\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="48" windowWidth="20112" windowHeight="7992" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Задание 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
     <definedName name="_GoBack" localSheetId="0">'Задание 1'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Задание 1'!$C$7:$CU$7</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -117,8 +122,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,33 +382,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="40% - Акцент3" xfId="2" builtinId="39"/>
+    <cellStyle name="40% — акцент3" xfId="2" builtinId="39"/>
     <cellStyle name="Вывод" xfId="1" builtinId="21"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>Гистограмма</c:v>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'Задание 1'!$H$5:$H$12</c:f>
@@ -470,7 +497,21 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DD59-41D6-99F7-7BCDFDBFAF57}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:axId val="53367552"/>
         <c:axId val="86167936"/>
       </c:barChart>
@@ -479,23 +520,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="86167936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="86167936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="53367552"/>
         <c:crosses val="autoZero"/>
@@ -503,6 +551,8 @@
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -513,8 +563,1283 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>Полигон</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]Задание 4'!$D$5:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]Задание 4'!$E$5:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-123C-4E00-AA3F-CC775F80C975}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="110303872"/>
+        <c:axId val="110330240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="110303872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="110330240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="110330240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="12"/>
+          <c:min val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="110303872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>Кумулята</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]Задание 4'!$D$5:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]Задание 4'!$F$5:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-590C-4BE4-9755-48C1B9A8D6E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="110341504"/>
+        <c:axId val="110355584"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="110341504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="110355584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="110355584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30"/>
+          <c:min val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="110341504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Эмпирическая ф-ция распределения</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]Задание 4'!$D$5:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]Задание 4'!$G$5:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D678-4135-B578-D1D66A629B85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="110371200"/>
+        <c:axId val="110372736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="110371200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="110372736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="110372736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="110371200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>Гистограмма</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Задание 3'!$E$5:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7DEC-49FB-B3AB-963726777C82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="55"/>
+        <c:overlap val="100"/>
+        <c:axId val="98757248"/>
+        <c:axId val="98832384"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="98757248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="98832384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="98832384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98757248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>Полигон</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]Задание 3'!$D$5:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.21398374000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45125411857142861</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68852449714285713</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92579487571428576</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1630652542857143</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4003356328571428</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6376060114285715</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8748763900000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]Задание 3'!$E$5:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FBBD-43F8-899C-BEBB719ABC53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="98839552"/>
+        <c:axId val="98857728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="98839552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.9000000000000001"/>
+          <c:min val="0.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98857728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="98857728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="28"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98839552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>Кумулята</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]Задание 3'!$D$5:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.21398374000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45125411857142861</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68852449714285713</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92579487571428576</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1630652542857143</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4003356328571428</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6376060114285715</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8748763900000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]Задание 3'!$F$5:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0D71-40AF-B9DA-140D1E91C606}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="98889728"/>
+        <c:axId val="98891264"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="98889728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.9000000000000001"/>
+          <c:min val="0.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98891264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="98891264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98889728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Эмпирическая ф-ция распределения</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]Задание 3'!$D$5:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.21398374000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45125411857142861</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68852449714285713</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92579487571428576</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1630652542857143</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4003356328571428</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6376060114285715</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8748763900000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]Задание 3'!$G$5:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3B08-4A06-969C-CEBEE9368714}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="98906880"/>
+        <c:axId val="98908416"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="98906880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.9000000000000001"/>
+          <c:min val="0.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98908416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="98908416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98906880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>Гистограмма</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Задание 5'!$E$5:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A1BE-48AE-BAE0-4EFAE67330A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="55"/>
+        <c:overlap val="100"/>
+        <c:axId val="110441984"/>
+        <c:axId val="110443520"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110441984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="110443520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110443520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="110441984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -534,94 +1859,158 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>'[1]Задание 4'!$D$5:$D$8</c:f>
+              <c:f>'[1]Задание 5'!$D$5:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[1]Задание 4'!$E$5:$E$8</c:f>
+              <c:f>'[1]Задание 5'!$E$5:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-812D-4968-AD1D-3CDEFB7B25F6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:axId val="110303872"/>
-        <c:axId val="110330240"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="110451328"/>
+        <c:axId val="110493696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="110303872"/>
+        <c:axId val="110451328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5"/>
-          <c:min val="2"/>
+          <c:max val="20"/>
+          <c:min val="10"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110330240"/>
+        <c:crossAx val="110493696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="110330240"/>
+        <c:axId val="110493696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="12"/>
-          <c:min val="4"/>
+          <c:max val="7"/>
+          <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110303872"/>
+        <c:crossAx val="110451328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -631,9 +2020,19 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -653,94 +2052,157 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>'[1]Задание 4'!$D$5:$D$8</c:f>
+              <c:f>'[1]Задание 5'!$D$5:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[1]Задание 4'!$F$5:$F$8</c:f>
+              <c:f>'[1]Задание 5'!$F$5:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-95FF-4423-81D3-EA89AAD237B9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:axId val="110341504"/>
-        <c:axId val="110355584"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="110504960"/>
+        <c:axId val="110519040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="110341504"/>
+        <c:axId val="110504960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5"/>
-          <c:min val="2"/>
+          <c:max val="20"/>
+          <c:min val="10"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110355584"/>
+        <c:crossAx val="110519040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="110355584"/>
+        <c:axId val="110519040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
-          <c:min val="5"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110341504"/>
+        <c:crossAx val="110504960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -750,9 +2212,186 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Эмпирическая ф-ция распределения</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Задание 1'!$H$5:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>94.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.65714285714286</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>107.21428571428571</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113.77142857142857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120.32857142857142</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>126.88571428571429</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>133.44285714285715</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Задание 1'!$J$5:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.020408163265306E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0816326530612242E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12244897959183673</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26530612244897961</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52040816326530615</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79591836734693877</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD3A-408D-9509-42E994882553}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="98512256"/>
+        <c:axId val="98522240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="98512256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="140"/>
+          <c:min val="90"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98522240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="98522240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98512256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -767,99 +2406,162 @@
               <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0"/>
               <a:t>Эмпирическая ф-ция распределения</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>'[1]Задание 4'!$D$5:$D$8</c:f>
+              <c:f>'[1]Задание 5'!$D$5:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[1]Задание 4'!$G$5:$G$8</c:f>
+              <c:f>'[1]Задание 5'!$G$5:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>3.3333333333333333E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56666666666666665</c:v>
+                  <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.13333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76666666666666672</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.8666666666666667</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
+                  <c:v>0.93333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A531-4ECD-ABB4-694BC576E84F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:axId val="110371200"/>
-        <c:axId val="110372736"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="110534656"/>
+        <c:axId val="110536192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="110371200"/>
+        <c:axId val="110534656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5"/>
-          <c:min val="2"/>
+          <c:max val="20"/>
+          <c:min val="10"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110372736"/>
+        <c:crossAx val="110536192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="110372736"/>
+        <c:axId val="110536192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
-          <c:min val="0.2"/>
+          <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110371200"/>
+        <c:crossAx val="110534656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -869,9 +2571,964 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Полигон</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Задание 1'!$H$5:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>94.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.65714285714286</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>107.21428571428571</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113.77142857142857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120.32857142857142</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>126.88571428571429</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>133.44285714285715</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Задание 1'!$I$5:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-79E9-4379-9EA0-E4327708B925}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="98541952"/>
+        <c:axId val="98543488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="98541952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="140"/>
+          <c:min val="90"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98543488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="98543488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98541952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Кумулята</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Задание 1'!$H$5:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>94.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.65714285714286</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>107.21428571428571</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113.77142857142857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120.32857142857142</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>126.88571428571429</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>133.44285714285715</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Задание 1'!$K$5:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A209-45AB-9D7F-7E52BB90E63C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="98559104"/>
+        <c:axId val="98560640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="98559104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="140"/>
+          <c:min val="90"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98560640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="98560640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98559104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Гистограмма</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Задание 2'!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9372-40BE-8BF6-2D69DE465C40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="55"/>
+        <c:overlap val="100"/>
+        <c:axId val="98654848"/>
+        <c:axId val="98677120"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="98654848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="98677120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="98677120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98654848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Полигон</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]Задание 2'!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]Задание 2'!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C23F-476A-8809-2AC3C9336360}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="98688384"/>
+        <c:axId val="98698368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="98688384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98698368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="98698368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="22"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98688384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Кумулята</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]Задание 2'!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]Задание 2'!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A778-403E-BDBC-52182E0B5CE1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="98730368"/>
+        <c:axId val="98731904"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="98730368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98731904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="98731904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="52"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98730368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Эмпирическая ф-ция распределения</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]Задание 2'!$B$1:$G$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]Задание 2'!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CB94-4671-AEED-2AFE6475F5E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="98747520"/>
+        <c:axId val="98749056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="98747520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98749056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="98749056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98747520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -890,2038 +3547,19 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]Задание 3'!$E$5:$E$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="55"/>
-        <c:overlap val="100"/>
-        <c:axId val="98757248"/>
-        <c:axId val="98832384"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="98757248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="98832384"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="98832384"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98757248"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t>Полигон</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'[1]Задание 3'!$D$5:$D$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.21398374000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.45125411857142861</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.68852449714285713</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.92579487571428576</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1630652542857143</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.4003356328571428</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.6376060114285715</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.8748763900000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'[1]Задание 3'!$E$5:$E$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="98839552"/>
-        <c:axId val="98857728"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="98839552"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1.9000000000000001"/>
-          <c:min val="0.2"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98857728"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="98857728"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="28"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98839552"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t>Кумулята</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'[1]Задание 3'!$D$5:$D$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.21398374000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.45125411857142861</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.68852449714285713</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.92579487571428576</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1630652542857143</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.4003356328571428</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.6376060114285715</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.8748763900000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'[1]Задание 3'!$F$5:$F$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="98889728"/>
-        <c:axId val="98891264"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="98889728"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1.9000000000000001"/>
-          <c:min val="0.2"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98891264"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="98891264"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="100"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98889728"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0"/>
-              <a:t>Эмпирическая ф-ция распределения</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'[1]Задание 3'!$D$5:$D$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.21398374000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.45125411857142861</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.68852449714285713</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.92579487571428576</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1630652542857143</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.4003356328571428</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.6376060114285715</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.8748763900000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'[1]Задание 3'!$G$5:$G$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.72</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.93</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="98906880"/>
-        <c:axId val="98908416"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="98906880"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1.9000000000000001"/>
-          <c:min val="0.2"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98908416"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="98908416"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98906880"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t>Гистограмма</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]Задание 5'!$E$5:$E$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="55"/>
-        <c:overlap val="100"/>
-        <c:axId val="110441984"/>
-        <c:axId val="110443520"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="110441984"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="110443520"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="110443520"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110441984"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t>Полигон</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'[1]Задание 5'!$D$5:$D$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'[1]Задание 5'!$E$5:$E$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="110451328"/>
-        <c:axId val="110493696"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="110451328"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="20"/>
-          <c:min val="10"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110493696"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="110493696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="7"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110451328"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t>Кумулята</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'[1]Задание 5'!$D$5:$D$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'[1]Задание 5'!$F$5:$F$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="110504960"/>
-        <c:axId val="110519040"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="110504960"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="20"/>
-          <c:min val="10"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110519040"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="110519040"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="30"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110504960"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Эмпирическая ф-ция распределения</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Задание 1'!$H$5:$H$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>94.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100.65714285714286</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>107.21428571428571</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>113.77142857142857</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>120.32857142857142</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>126.88571428571429</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>133.44285714285715</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>140</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Задание 1'!$J$5:$J$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1.020408163265306E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0816326530612242E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.12244897959183673</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.26530612244897961</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.52040816326530615</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.79591836734693877</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.9285714285714286</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="98512256"/>
-        <c:axId val="98522240"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="98512256"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="140"/>
-          <c:min val="90"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98522240"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="98522240"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1.2"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98512256"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0"/>
-              <a:t>Эмпирическая ф-ция распределения</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'[1]Задание 5'!$D$5:$D$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'[1]Задание 5'!$G$5:$G$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>3.3333333333333333E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.6666666666666666E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.13333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.26666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.76666666666666672</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.83333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.93333333333333335</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="110534656"/>
-        <c:axId val="110536192"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="110534656"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="20"/>
-          <c:min val="10"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110536192"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="110536192"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110534656"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Полигон</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Задание 1'!$H$5:$H$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>94.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100.65714285714286</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>107.21428571428571</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>113.77142857142857</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>120.32857142857142</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>126.88571428571429</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>133.44285714285715</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>140</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Задание 1'!$I$5:$I$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="98541952"/>
-        <c:axId val="98543488"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="98541952"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="140"/>
-          <c:min val="90"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98543488"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="98543488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98541952"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Кумулята</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Задание 1'!$H$5:$H$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>94.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100.65714285714286</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>107.21428571428571</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>113.77142857142857</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>120.32857142857142</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>126.88571428571429</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>133.44285714285715</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>140</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Задание 1'!$K$5:$K$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>98</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="98559104"/>
-        <c:axId val="98560640"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="98559104"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="140"/>
-          <c:min val="90"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98560640"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="98560640"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="100"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98559104"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Гистограмма</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'[1]Задание 2'!$B$2:$G$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="55"/>
-        <c:overlap val="100"/>
-        <c:axId val="98654848"/>
-        <c:axId val="98677120"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="98654848"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="98677120"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="98677120"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98654848"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Полигон</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'[1]Задание 2'!$B$1:$G$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'[1]Задание 2'!$B$2:$G$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="98688384"/>
-        <c:axId val="98698368"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="98688384"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="6"/>
-          <c:min val="1"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98698368"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="98698368"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="22"/>
-          <c:min val="2"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98688384"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Кумулята</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'[1]Задание 2'!$B$1:$G$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'[1]Задание 2'!$B$3:$G$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="98730368"/>
-        <c:axId val="98731904"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="98730368"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="6"/>
-          <c:min val="1"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98731904"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="98731904"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="52"/>
-          <c:min val="2"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98730368"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0"/>
-              <a:t>Эмпирическая ф-ция распределения</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'[1]Задание 2'!$B$1:$G$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'[1]Задание 2'!$B$4:$G$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.82</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="98747520"/>
-        <c:axId val="98749056"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="98747520"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="6"/>
-          <c:min val="1"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98749056"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="98749056"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98747520"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t>Гистограмма</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'[1]Задание 4'!$E$5:$E$8</c:f>
@@ -2943,7 +3581,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B8B6-463C-9F29-03F1580B5955}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
         <c:axId val="98948992"/>
@@ -2957,22 +3608,26 @@
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
         <c:crossAx val="98950528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="98950528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="98948992"/>
         <c:crosses val="autoZero"/>
@@ -2980,6 +3635,8 @@
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3615,7 +4272,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Задание 1"/>
@@ -4084,7 +4741,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4116,9 +4773,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4150,6 +4808,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -4325,22 +4984,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:CW106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:101" ht="15.75">
+    <row r="2" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4639,7 +5298,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:101" ht="31.5">
+    <row r="4" spans="1:101" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -4670,7 +5329,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:101">
+    <row r="5" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -4705,7 +5364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:101" ht="30" customHeight="1">
+    <row r="6" spans="1:101" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
@@ -4739,7 +5398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:101" ht="18">
+    <row r="7" spans="1:101" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -4857,7 +5516,7 @@
       <c r="CT7" s="1"/>
       <c r="CU7" s="1"/>
     </row>
-    <row r="8" spans="1:101" ht="15.75">
+    <row r="8" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>94.1</v>
       </c>
@@ -4977,7 +5636,7 @@
       <c r="CU8" s="1"/>
       <c r="CV8" s="1"/>
     </row>
-    <row r="9" spans="1:101" ht="15.75">
+    <row r="9" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>97</v>
       </c>
@@ -5096,7 +5755,7 @@
       <c r="CU9" s="1"/>
       <c r="CV9" s="1"/>
     </row>
-    <row r="10" spans="1:101" ht="15.75">
+    <row r="10" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>99.2</v>
       </c>
@@ -5213,7 +5872,7 @@
       <c r="CV10" s="1"/>
       <c r="CW10" s="1"/>
     </row>
-    <row r="11" spans="1:101" ht="15.75">
+    <row r="11" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>100.1</v>
       </c>
@@ -5330,7 +5989,7 @@
       <c r="CV11" s="1"/>
       <c r="CW11" s="1"/>
     </row>
-    <row r="12" spans="1:101" ht="15.75">
+    <row r="12" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>102</v>
       </c>
@@ -5443,7 +6102,7 @@
       <c r="CR12" s="1"/>
       <c r="CS12" s="1"/>
     </row>
-    <row r="13" spans="1:101" ht="15.75">
+    <row r="13" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>103.4</v>
       </c>
@@ -5543,7 +6202,7 @@
       <c r="CR13" s="1"/>
       <c r="CS13" s="1"/>
     </row>
-    <row r="14" spans="1:101" ht="15.75">
+    <row r="14" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>105.5</v>
       </c>
@@ -5643,7 +6302,7 @@
       <c r="CR14" s="1"/>
       <c r="CS14" s="1"/>
     </row>
-    <row r="15" spans="1:101" ht="15.75">
+    <row r="15" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>105.9</v>
       </c>
@@ -5743,7 +6402,7 @@
       <c r="CR15" s="1"/>
       <c r="CS15" s="1"/>
     </row>
-    <row r="16" spans="1:101" ht="15.75">
+    <row r="16" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>106.1</v>
       </c>
@@ -5843,7 +6502,7 @@
       <c r="CR16" s="1"/>
       <c r="CS16" s="1"/>
     </row>
-    <row r="17" spans="1:101" ht="15.75">
+    <row r="17" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>106.5</v>
       </c>
@@ -5943,7 +6602,7 @@
       <c r="CR17" s="1"/>
       <c r="CS17" s="1"/>
     </row>
-    <row r="18" spans="1:101" ht="15.75">
+    <row r="18" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>107</v>
       </c>
@@ -6043,7 +6702,7 @@
       <c r="CR18" s="1"/>
       <c r="CS18" s="1"/>
     </row>
-    <row r="19" spans="1:101" ht="15.75">
+    <row r="19" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>107.1</v>
       </c>
@@ -6143,7 +6802,7 @@
       <c r="CR19" s="1"/>
       <c r="CS19" s="1"/>
     </row>
-    <row r="20" spans="1:101" ht="15.75">
+    <row r="20" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>108</v>
       </c>
@@ -6243,7 +6902,7 @@
       <c r="CR20" s="1"/>
       <c r="CS20" s="1"/>
     </row>
-    <row r="21" spans="1:101" ht="15.75">
+    <row r="21" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>108.2</v>
       </c>
@@ -6347,7 +7006,7 @@
       <c r="CV21" s="1"/>
       <c r="CW21" s="1"/>
     </row>
-    <row r="22" spans="1:101" ht="15.75">
+    <row r="22" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>109</v>
       </c>
@@ -6451,7 +7110,7 @@
       <c r="CV22" s="1"/>
       <c r="CW22" s="1"/>
     </row>
-    <row r="23" spans="1:101" ht="15.75">
+    <row r="23" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>109.5</v>
       </c>
@@ -6555,7 +7214,7 @@
       <c r="CV23" s="1"/>
       <c r="CW23" s="1"/>
     </row>
-    <row r="24" spans="1:101" ht="15.75">
+    <row r="24" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>110</v>
       </c>
@@ -6659,7 +7318,7 @@
       <c r="CV24" s="1"/>
       <c r="CW24" s="1"/>
     </row>
-    <row r="25" spans="1:101" ht="15.75">
+    <row r="25" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>111</v>
       </c>
@@ -6763,7 +7422,7 @@
       <c r="CV25" s="1"/>
       <c r="CW25" s="1"/>
     </row>
-    <row r="26" spans="1:101" ht="15.75">
+    <row r="26" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>111.5</v>
       </c>
@@ -6867,7 +7526,7 @@
       <c r="CV26" s="1"/>
       <c r="CW26" s="1"/>
     </row>
-    <row r="27" spans="1:101" ht="15.75">
+    <row r="27" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>112</v>
       </c>
@@ -6971,7 +7630,7 @@
       <c r="CV27" s="1"/>
       <c r="CW27" s="1"/>
     </row>
-    <row r="28" spans="1:101" ht="15.75">
+    <row r="28" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>112.3</v>
       </c>
@@ -7075,7 +7734,7 @@
       <c r="CV28" s="1"/>
       <c r="CW28" s="1"/>
     </row>
-    <row r="29" spans="1:101" ht="15.75">
+    <row r="29" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>112.5</v>
       </c>
@@ -7179,7 +7838,7 @@
       <c r="CV29" s="1"/>
       <c r="CW29" s="1"/>
     </row>
-    <row r="30" spans="1:101" ht="15.75">
+    <row r="30" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>112.9</v>
       </c>
@@ -7283,7 +7942,7 @@
       <c r="CV30" s="1"/>
       <c r="CW30" s="1"/>
     </row>
-    <row r="31" spans="1:101" ht="15.75">
+    <row r="31" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>113</v>
       </c>
@@ -7387,7 +8046,7 @@
       <c r="CV31" s="1"/>
       <c r="CW31" s="1"/>
     </row>
-    <row r="32" spans="1:101" ht="15.75">
+    <row r="32" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>113.2</v>
       </c>
@@ -7491,7 +8150,7 @@
       <c r="CV32" s="1"/>
       <c r="CW32" s="1"/>
     </row>
-    <row r="33" spans="1:101" ht="15.75">
+    <row r="33" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>113.5</v>
       </c>
@@ -7595,7 +8254,7 @@
       <c r="CV33" s="1"/>
       <c r="CW33" s="1"/>
     </row>
-    <row r="34" spans="1:101" ht="15.75">
+    <row r="34" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>114</v>
       </c>
@@ -7699,7 +8358,7 @@
       <c r="CV34" s="1"/>
       <c r="CW34" s="1"/>
     </row>
-    <row r="35" spans="1:101" ht="15.75">
+    <row r="35" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>114.1</v>
       </c>
@@ -7803,7 +8462,7 @@
       <c r="CV35" s="1"/>
       <c r="CW35" s="1"/>
     </row>
-    <row r="36" spans="1:101" ht="15.75">
+    <row r="36" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>114.5</v>
       </c>
@@ -7907,7 +8566,7 @@
       <c r="CV36" s="1"/>
       <c r="CW36" s="1"/>
     </row>
-    <row r="37" spans="1:101" ht="15.75">
+    <row r="37" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>115</v>
       </c>
@@ -8011,7 +8670,7 @@
       <c r="CV37" s="1"/>
       <c r="CW37" s="1"/>
     </row>
-    <row r="38" spans="1:101" ht="15.75">
+    <row r="38" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>115.2</v>
       </c>
@@ -8115,7 +8774,7 @@
       <c r="CV38" s="1"/>
       <c r="CW38" s="1"/>
     </row>
-    <row r="39" spans="1:101" ht="15.75">
+    <row r="39" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>115.5</v>
       </c>
@@ -8219,7 +8878,7 @@
       <c r="CV39" s="1"/>
       <c r="CW39" s="1"/>
     </row>
-    <row r="40" spans="1:101" ht="15.75">
+    <row r="40" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>115.7</v>
       </c>
@@ -8323,7 +8982,7 @@
       <c r="CV40" s="1"/>
       <c r="CW40" s="1"/>
     </row>
-    <row r="41" spans="1:101" ht="15.75">
+    <row r="41" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>116</v>
       </c>
@@ -8427,7 +9086,7 @@
       <c r="CV41" s="1"/>
       <c r="CW41" s="1"/>
     </row>
-    <row r="42" spans="1:101" ht="15.75">
+    <row r="42" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>116.5</v>
       </c>
@@ -8531,7 +9190,7 @@
       <c r="CV42" s="1"/>
       <c r="CW42" s="1"/>
     </row>
-    <row r="43" spans="1:101" ht="15.75">
+    <row r="43" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>116.9</v>
       </c>
@@ -8635,7 +9294,7 @@
       <c r="CV43" s="1"/>
       <c r="CW43" s="1"/>
     </row>
-    <row r="44" spans="1:101" ht="15.75">
+    <row r="44" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>117</v>
       </c>
@@ -8739,7 +9398,7 @@
       <c r="CV44" s="1"/>
       <c r="CW44" s="1"/>
     </row>
-    <row r="45" spans="1:101" ht="15.75">
+    <row r="45" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>117.5</v>
       </c>
@@ -8843,7 +9502,7 @@
       <c r="CV45" s="1"/>
       <c r="CW45" s="1"/>
     </row>
-    <row r="46" spans="1:101" ht="15.75">
+    <row r="46" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>118</v>
       </c>
@@ -8947,7 +9606,7 @@
       <c r="CV46" s="1"/>
       <c r="CW46" s="1"/>
     </row>
-    <row r="47" spans="1:101" ht="15.75">
+    <row r="47" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>118.1</v>
       </c>
@@ -9051,7 +9710,7 @@
       <c r="CV47" s="1"/>
       <c r="CW47" s="1"/>
     </row>
-    <row r="48" spans="1:101" ht="15.75">
+    <row r="48" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>118.3</v>
       </c>
@@ -9155,7 +9814,7 @@
       <c r="CV48" s="1"/>
       <c r="CW48" s="1"/>
     </row>
-    <row r="49" spans="1:101" ht="15.75">
+    <row r="49" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>118.5</v>
       </c>
@@ -9259,7 +9918,7 @@
       <c r="CV49" s="1"/>
       <c r="CW49" s="1"/>
     </row>
-    <row r="50" spans="1:101" ht="15.75">
+    <row r="50" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>118.9</v>
       </c>
@@ -9363,7 +10022,7 @@
       <c r="CV50" s="1"/>
       <c r="CW50" s="1"/>
     </row>
-    <row r="51" spans="1:101" ht="15.75">
+    <row r="51" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>119</v>
       </c>
@@ -9467,7 +10126,7 @@
       <c r="CV51" s="1"/>
       <c r="CW51" s="1"/>
     </row>
-    <row r="52" spans="1:101" ht="15.75">
+    <row r="52" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>119.2</v>
       </c>
@@ -9571,7 +10230,7 @@
       <c r="CV52" s="1"/>
       <c r="CW52" s="1"/>
     </row>
-    <row r="53" spans="1:101" ht="15.75">
+    <row r="53" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>119.5</v>
       </c>
@@ -9675,7 +10334,7 @@
       <c r="CV53" s="1"/>
       <c r="CW53" s="1"/>
     </row>
-    <row r="54" spans="1:101" ht="15.75">
+    <row r="54" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>119.6</v>
       </c>
@@ -9779,7 +10438,7 @@
       <c r="CV54" s="1"/>
       <c r="CW54" s="1"/>
     </row>
-    <row r="55" spans="1:101" ht="15.75">
+    <row r="55" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>119.8</v>
       </c>
@@ -9883,7 +10542,7 @@
       <c r="CV55" s="1"/>
       <c r="CW55" s="1"/>
     </row>
-    <row r="56" spans="1:101" ht="15.75">
+    <row r="56" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>120</v>
       </c>
@@ -9987,7 +10646,7 @@
       <c r="CV56" s="1"/>
       <c r="CW56" s="1"/>
     </row>
-    <row r="57" spans="1:101" ht="15.75">
+    <row r="57" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>120.2</v>
       </c>
@@ -10091,7 +10750,7 @@
       <c r="CV57" s="1"/>
       <c r="CW57" s="1"/>
     </row>
-    <row r="58" spans="1:101" ht="15.75">
+    <row r="58" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>120.6</v>
       </c>
@@ -10195,7 +10854,7 @@
       <c r="CV58" s="1"/>
       <c r="CW58" s="1"/>
     </row>
-    <row r="59" spans="1:101" ht="15.75">
+    <row r="59" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>120.8</v>
       </c>
@@ -10299,7 +10958,7 @@
       <c r="CV59" s="1"/>
       <c r="CW59" s="1"/>
     </row>
-    <row r="60" spans="1:101" ht="15.75">
+    <row r="60" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>121</v>
       </c>
@@ -10403,7 +11062,7 @@
       <c r="CV60" s="1"/>
       <c r="CW60" s="1"/>
     </row>
-    <row r="61" spans="1:101" ht="15.75">
+    <row r="61" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>121.1</v>
       </c>
@@ -10507,7 +11166,7 @@
       <c r="CV61" s="1"/>
       <c r="CW61" s="1"/>
     </row>
-    <row r="62" spans="1:101" ht="15.75">
+    <row r="62" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>121.5</v>
       </c>
@@ -10611,7 +11270,7 @@
       <c r="CV62" s="1"/>
       <c r="CW62" s="1"/>
     </row>
-    <row r="63" spans="1:101" ht="15.75">
+    <row r="63" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>121.9</v>
       </c>
@@ -10715,7 +11374,7 @@
       <c r="CV63" s="1"/>
       <c r="CW63" s="1"/>
     </row>
-    <row r="64" spans="1:101" ht="15.75">
+    <row r="64" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>122</v>
       </c>
@@ -10819,7 +11478,7 @@
       <c r="CV64" s="1"/>
       <c r="CW64" s="1"/>
     </row>
-    <row r="65" spans="1:101" ht="15.75">
+    <row r="65" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>122.2</v>
       </c>
@@ -10923,7 +11582,7 @@
       <c r="CV65" s="1"/>
       <c r="CW65" s="1"/>
     </row>
-    <row r="66" spans="1:101" ht="15.75">
+    <row r="66" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>122.5</v>
       </c>
@@ -11027,7 +11686,7 @@
       <c r="CV66" s="1"/>
       <c r="CW66" s="1"/>
     </row>
-    <row r="67" spans="1:101" ht="15.75">
+    <row r="67" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>122.6</v>
       </c>
@@ -11131,7 +11790,7 @@
       <c r="CV67" s="1"/>
       <c r="CW67" s="1"/>
     </row>
-    <row r="68" spans="1:101" ht="15.75">
+    <row r="68" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>122.9</v>
       </c>
@@ -11235,7 +11894,7 @@
       <c r="CV68" s="1"/>
       <c r="CW68" s="1"/>
     </row>
-    <row r="69" spans="1:101" ht="15.75">
+    <row r="69" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>123</v>
       </c>
@@ -11339,7 +11998,7 @@
       <c r="CV69" s="1"/>
       <c r="CW69" s="1"/>
     </row>
-    <row r="70" spans="1:101" ht="15.75">
+    <row r="70" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>123.1</v>
       </c>
@@ -11443,7 +12102,7 @@
       <c r="CV70" s="1"/>
       <c r="CW70" s="1"/>
     </row>
-    <row r="71" spans="1:101" ht="15.75">
+    <row r="71" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>123.2</v>
       </c>
@@ -11547,7 +12206,7 @@
       <c r="CV71" s="1"/>
       <c r="CW71" s="1"/>
     </row>
-    <row r="72" spans="1:101" ht="15.75">
+    <row r="72" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>123.5</v>
       </c>
@@ -11651,7 +12310,7 @@
       <c r="CV72" s="1"/>
       <c r="CW72" s="1"/>
     </row>
-    <row r="73" spans="1:101" ht="15.75">
+    <row r="73" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>123.8</v>
       </c>
@@ -11755,7 +12414,7 @@
       <c r="CV73" s="1"/>
       <c r="CW73" s="1"/>
     </row>
-    <row r="74" spans="1:101" ht="15.75">
+    <row r="74" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>123.9</v>
       </c>
@@ -11859,7 +12518,7 @@
       <c r="CV74" s="1"/>
       <c r="CW74" s="1"/>
     </row>
-    <row r="75" spans="1:101" ht="15.75">
+    <row r="75" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>124</v>
       </c>
@@ -11963,7 +12622,7 @@
       <c r="CV75" s="1"/>
       <c r="CW75" s="1"/>
     </row>
-    <row r="76" spans="1:101" ht="15.75">
+    <row r="76" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>124.5</v>
       </c>
@@ -12067,7 +12726,7 @@
       <c r="CV76" s="1"/>
       <c r="CW76" s="1"/>
     </row>
-    <row r="77" spans="1:101" ht="15.75">
+    <row r="77" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>124.8</v>
       </c>
@@ -12171,7 +12830,7 @@
       <c r="CV77" s="1"/>
       <c r="CW77" s="1"/>
     </row>
-    <row r="78" spans="1:101" ht="15.75">
+    <row r="78" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>125</v>
       </c>
@@ -12275,7 +12934,7 @@
       <c r="CV78" s="1"/>
       <c r="CW78" s="1"/>
     </row>
-    <row r="79" spans="1:101" ht="15.75">
+    <row r="79" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>125.5</v>
       </c>
@@ -12379,7 +13038,7 @@
       <c r="CV79" s="1"/>
       <c r="CW79" s="1"/>
     </row>
-    <row r="80" spans="1:101" ht="15.75">
+    <row r="80" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>126</v>
       </c>
@@ -12483,7 +13142,7 @@
       <c r="CV80" s="1"/>
       <c r="CW80" s="1"/>
     </row>
-    <row r="81" spans="1:101" ht="15.75">
+    <row r="81" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>126.1</v>
       </c>
@@ -12587,7 +13246,7 @@
       <c r="CV81" s="1"/>
       <c r="CW81" s="1"/>
     </row>
-    <row r="82" spans="1:101" ht="15.75">
+    <row r="82" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>126.5</v>
       </c>
@@ -12691,7 +13350,7 @@
       <c r="CV82" s="1"/>
       <c r="CW82" s="1"/>
     </row>
-    <row r="83" spans="1:101" ht="15.75">
+    <row r="83" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>127</v>
       </c>
@@ -12795,7 +13454,7 @@
       <c r="CV83" s="1"/>
       <c r="CW83" s="1"/>
     </row>
-    <row r="84" spans="1:101" ht="15.75">
+    <row r="84" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>127.5</v>
       </c>
@@ -12899,7 +13558,7 @@
       <c r="CV84" s="1"/>
       <c r="CW84" s="1"/>
     </row>
-    <row r="85" spans="1:101" ht="15.75">
+    <row r="85" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>127.8</v>
       </c>
@@ -13003,7 +13662,7 @@
       <c r="CV85" s="1"/>
       <c r="CW85" s="1"/>
     </row>
-    <row r="86" spans="1:101" ht="15.75">
+    <row r="86" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>128</v>
       </c>
@@ -13107,7 +13766,7 @@
       <c r="CV86" s="1"/>
       <c r="CW86" s="1"/>
     </row>
-    <row r="87" spans="1:101" ht="15.75">
+    <row r="87" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>128.5</v>
       </c>
@@ -13211,7 +13870,7 @@
       <c r="CV87" s="1"/>
       <c r="CW87" s="1"/>
     </row>
-    <row r="88" spans="1:101" ht="15.75">
+    <row r="88" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>129</v>
       </c>
@@ -13315,7 +13974,7 @@
       <c r="CV88" s="1"/>
       <c r="CW88" s="1"/>
     </row>
-    <row r="89" spans="1:101" ht="15.75">
+    <row r="89" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>129.5</v>
       </c>
@@ -13419,7 +14078,7 @@
       <c r="CV89" s="1"/>
       <c r="CW89" s="1"/>
     </row>
-    <row r="90" spans="1:101" ht="15.75">
+    <row r="90" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>129.9</v>
       </c>
@@ -13523,7 +14182,7 @@
       <c r="CV90" s="1"/>
       <c r="CW90" s="1"/>
     </row>
-    <row r="91" spans="1:101" ht="15.75">
+    <row r="91" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>130</v>
       </c>
@@ -13627,7 +14286,7 @@
       <c r="CV91" s="1"/>
       <c r="CW91" s="1"/>
     </row>
-    <row r="92" spans="1:101" ht="15.75">
+    <row r="92" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>131</v>
       </c>
@@ -13731,7 +14390,7 @@
       <c r="CV92" s="1"/>
       <c r="CW92" s="1"/>
     </row>
-    <row r="93" spans="1:101" ht="15.75">
+    <row r="93" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>131.4</v>
       </c>
@@ -13835,7 +14494,7 @@
       <c r="CV93" s="1"/>
       <c r="CW93" s="1"/>
     </row>
-    <row r="94" spans="1:101" ht="15.75">
+    <row r="94" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>132</v>
       </c>
@@ -13939,7 +14598,7 @@
       <c r="CV94" s="1"/>
       <c r="CW94" s="1"/>
     </row>
-    <row r="95" spans="1:101" ht="15.75">
+    <row r="95" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>133</v>
       </c>
@@ -14043,7 +14702,7 @@
       <c r="CV95" s="1"/>
       <c r="CW95" s="1"/>
     </row>
-    <row r="96" spans="1:101" ht="15.75">
+    <row r="96" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>133.6</v>
       </c>
@@ -14147,7 +14806,7 @@
       <c r="CV96" s="1"/>
       <c r="CW96" s="1"/>
     </row>
-    <row r="97" spans="1:101" ht="15.75">
+    <row r="97" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>134</v>
       </c>
@@ -14251,7 +14910,7 @@
       <c r="CV97" s="1"/>
       <c r="CW97" s="1"/>
     </row>
-    <row r="98" spans="1:101" ht="15.75">
+    <row r="98" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>134.19999999999999</v>
       </c>
@@ -14355,7 +15014,7 @@
       <c r="CV98" s="1"/>
       <c r="CW98" s="1"/>
     </row>
-    <row r="99" spans="1:101" ht="15.75">
+    <row r="99" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>135</v>
       </c>
@@ -14459,7 +15118,7 @@
       <c r="CV99" s="1"/>
       <c r="CW99" s="1"/>
     </row>
-    <row r="100" spans="1:101" ht="15.75">
+    <row r="100" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>135.80000000000001</v>
       </c>
@@ -14563,7 +15222,7 @@
       <c r="CV100" s="1"/>
       <c r="CW100" s="1"/>
     </row>
-    <row r="101" spans="1:101" ht="15.75">
+    <row r="101" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>138</v>
       </c>
@@ -14667,7 +15326,7 @@
       <c r="CV101" s="1"/>
       <c r="CW101" s="1"/>
     </row>
-    <row r="102" spans="1:101" ht="15.75">
+    <row r="102" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>140</v>
       </c>
@@ -14771,7 +15430,7 @@
       <c r="CV102" s="1"/>
       <c r="CW102" s="1"/>
     </row>
-    <row r="103" spans="1:101" ht="15.75">
+    <row r="103" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -14869,7 +15528,7 @@
       <c r="CV103" s="1"/>
       <c r="CW103" s="1"/>
     </row>
-    <row r="104" spans="1:101" ht="15.75">
+    <row r="104" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -14968,7 +15627,7 @@
       <c r="CV104" s="1"/>
       <c r="CW104" s="1"/>
     </row>
-    <row r="105" spans="1:101" ht="15.75">
+    <row r="105" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -15065,7 +15724,7 @@
       <c r="CQ105" s="1"/>
       <c r="CR105" s="1"/>
     </row>
-    <row r="106" spans="1:101" ht="15.75">
+    <row r="106" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -15170,19 +15829,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>12</v>
       </c>
@@ -15205,7 +15864,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>15</v>
       </c>
@@ -15228,7 +15887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
@@ -15257,7 +15916,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>14</v>
       </c>
@@ -15293,24 +15952,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="31.5">
+    <row r="1" spans="1:31" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>16</v>
       </c>
@@ -15405,7 +16064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="15.75">
+    <row r="2" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
@@ -15415,7 +16074,7 @@
       </c>
       <c r="F2" s="17"/>
     </row>
-    <row r="3" spans="1:31" ht="15.75">
+    <row r="3" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
@@ -15428,7 +16087,7 @@
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
     </row>
-    <row r="4" spans="1:31" ht="15.75">
+    <row r="4" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
@@ -15437,10 +16096,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
     </row>
-    <row r="6" spans="1:31" ht="33" customHeight="1">
+    <row r="6" spans="1:31" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>9</v>
       </c>
@@ -15457,7 +16116,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="15.75">
+    <row r="7" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>1</v>
       </c>
@@ -15477,7 +16136,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="15.75">
+    <row r="8" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>2</v>
       </c>
@@ -15496,7 +16155,7 @@
         <v>0.56666666666666665</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="15.75">
+    <row r="9" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>3</v>
       </c>
@@ -15515,7 +16174,7 @@
         <v>0.8666666666666667</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="15.75">
+    <row r="10" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>4</v>
       </c>
@@ -15534,13 +16193,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -15548,7 +16207,7 @@
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -15556,7 +16215,7 @@
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -15564,7 +16223,7 @@
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -15572,7 +16231,7 @@
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -15580,7 +16239,7 @@
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -15588,7 +16247,7 @@
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -15596,7 +16255,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -15604,7 +16263,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -15612,7 +16271,7 @@
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -15620,7 +16279,7 @@
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -15628,7 +16287,7 @@
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -15636,7 +16295,7 @@
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -15644,7 +16303,7 @@
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -15652,7 +16311,7 @@
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -15660,7 +16319,7 @@
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -15668,7 +16327,7 @@
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -15676,7 +16335,7 @@
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -15684,7 +16343,7 @@
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -15699,25 +16358,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CW101"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101" ht="31.5">
+    <row r="1" spans="1:101" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>16</v>
       </c>
@@ -16022,7 +16681,7 @@
         <v>0.74979351999999999</v>
       </c>
     </row>
-    <row r="2" spans="1:101" ht="15.75">
+    <row r="2" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
@@ -16032,7 +16691,7 @@
       </c>
       <c r="F2" s="18"/>
     </row>
-    <row r="3" spans="1:101" ht="15.75">
+    <row r="3" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
@@ -16041,7 +16700,7 @@
         <v>0.21398374000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:101" ht="15.75">
+    <row r="4" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
@@ -16050,7 +16709,7 @@
         <v>1.8748763900000001</v>
       </c>
     </row>
-    <row r="5" spans="1:101" ht="47.25">
+    <row r="5" spans="1:101" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>6</v>
       </c>
@@ -16059,7 +16718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:101" ht="31.5">
+    <row r="6" spans="1:101" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>17</v>
       </c>
@@ -16068,7 +16727,7 @@
         <v>0.23727037857142858</v>
       </c>
     </row>
-    <row r="8" spans="1:101" ht="15.75">
+    <row r="8" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
@@ -16085,7 +16744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:101" ht="15.75">
+    <row r="9" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>1</v>
       </c>
@@ -16106,7 +16765,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:101" ht="15.75">
+    <row r="10" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>2</v>
       </c>
@@ -16126,7 +16785,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:101" ht="15.75">
+    <row r="11" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>3</v>
       </c>
@@ -16146,7 +16805,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:101" ht="15.75">
+    <row r="12" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>4</v>
       </c>
@@ -16166,7 +16825,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="13" spans="1:101" ht="15.75">
+    <row r="13" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>5</v>
       </c>
@@ -16187,7 +16846,7 @@
       </c>
       <c r="F13" s="18"/>
     </row>
-    <row r="14" spans="1:101" ht="15.75">
+    <row r="14" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>6</v>
       </c>
@@ -16208,7 +16867,7 @@
       </c>
       <c r="F14" s="18"/>
     </row>
-    <row r="15" spans="1:101" ht="15.75">
+    <row r="15" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>7</v>
       </c>
@@ -16229,7 +16888,7 @@
       </c>
       <c r="F15" s="18"/>
     </row>
-    <row r="16" spans="1:101" ht="15.75">
+    <row r="16" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>8</v>
       </c>
@@ -16250,36 +16909,36 @@
       </c>
       <c r="F16" s="18"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75">
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F17" s="18"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75">
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F18" s="18"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75">
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F19" s="18"/>
     </row>
-    <row r="20" spans="1:6" ht="15.75">
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F20" s="18"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75">
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:6" ht="15.75">
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F22" s="18"/>
     </row>
-    <row r="23" spans="1:6" ht="15.75">
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F23" s="18"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75">
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="F24" s="18"/>
     </row>
-    <row r="25" spans="1:6" ht="15.75">
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="18"/>
       <c r="B25" s="18"/>
       <c r="F25" s="18"/>
     </row>
-    <row r="26" spans="1:6" ht="15.75">
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -16287,7 +16946,7 @@
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75">
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -16295,7 +16954,7 @@
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75">
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
@@ -16303,7 +16962,7 @@
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
     </row>
-    <row r="29" spans="1:6" ht="15.75">
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="18"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
@@ -16311,7 +16970,7 @@
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
     </row>
-    <row r="30" spans="1:6" ht="15.75">
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
@@ -16319,7 +16978,7 @@
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
     </row>
-    <row r="31" spans="1:6" ht="15.75">
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -16327,7 +16986,7 @@
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
     </row>
-    <row r="32" spans="1:6" ht="15.75">
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="18"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
@@ -16335,7 +16994,7 @@
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
     </row>
-    <row r="33" spans="1:6" ht="15.75">
+    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -16343,7 +17002,7 @@
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
     </row>
-    <row r="34" spans="1:6" ht="15.75">
+    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -16351,7 +17010,7 @@
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
     </row>
-    <row r="35" spans="1:6" ht="15.75">
+    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -16359,7 +17018,7 @@
       <c r="E35" s="18"/>
       <c r="F35" s="18"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75">
+    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -16367,7 +17026,7 @@
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75">
+    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -16375,7 +17034,7 @@
       <c r="E37" s="18"/>
       <c r="F37" s="18"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75">
+    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -16383,7 +17042,7 @@
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
     </row>
-    <row r="39" spans="1:6" ht="15.75">
+    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -16391,7 +17050,7 @@
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
     </row>
-    <row r="40" spans="1:6" ht="15.75">
+    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
@@ -16399,7 +17058,7 @@
       <c r="E40" s="18"/>
       <c r="F40" s="18"/>
     </row>
-    <row r="41" spans="1:6" ht="15.75">
+    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
@@ -16407,7 +17066,7 @@
       <c r="E41" s="18"/>
       <c r="F41" s="18"/>
     </row>
-    <row r="42" spans="1:6" ht="15.75">
+    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="18"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
@@ -16415,7 +17074,7 @@
       <c r="E42" s="18"/>
       <c r="F42" s="18"/>
     </row>
-    <row r="43" spans="1:6" ht="15.75">
+    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="18"/>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
@@ -16423,7 +17082,7 @@
       <c r="E43" s="18"/>
       <c r="F43" s="18"/>
     </row>
-    <row r="44" spans="1:6" ht="15.75">
+    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
@@ -16431,7 +17090,7 @@
       <c r="E44" s="18"/>
       <c r="F44" s="18"/>
     </row>
-    <row r="45" spans="1:6" ht="15.75">
+    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
@@ -16439,7 +17098,7 @@
       <c r="E45" s="18"/>
       <c r="F45" s="18"/>
     </row>
-    <row r="46" spans="1:6" ht="15.75">
+    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
@@ -16447,7 +17106,7 @@
       <c r="E46" s="18"/>
       <c r="F46" s="18"/>
     </row>
-    <row r="47" spans="1:6" ht="15.75">
+    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="18"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
@@ -16455,7 +17114,7 @@
       <c r="E47" s="18"/>
       <c r="F47" s="18"/>
     </row>
-    <row r="48" spans="1:6" ht="15.75">
+    <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="18"/>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
@@ -16463,7 +17122,7 @@
       <c r="E48" s="18"/>
       <c r="F48" s="18"/>
     </row>
-    <row r="49" spans="1:6" ht="15.75">
+    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
@@ -16471,7 +17130,7 @@
       <c r="E49" s="18"/>
       <c r="F49" s="18"/>
     </row>
-    <row r="50" spans="1:6" ht="15.75">
+    <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
@@ -16479,7 +17138,7 @@
       <c r="E50" s="18"/>
       <c r="F50" s="18"/>
     </row>
-    <row r="51" spans="1:6" ht="15.75">
+    <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="18"/>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
@@ -16487,7 +17146,7 @@
       <c r="E51" s="18"/>
       <c r="F51" s="18"/>
     </row>
-    <row r="52" spans="1:6" ht="15.75">
+    <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="18"/>
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
@@ -16495,7 +17154,7 @@
       <c r="E52" s="18"/>
       <c r="F52" s="18"/>
     </row>
-    <row r="53" spans="1:6" ht="15.75">
+    <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="18"/>
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
@@ -16503,7 +17162,7 @@
       <c r="E53" s="18"/>
       <c r="F53" s="18"/>
     </row>
-    <row r="54" spans="1:6" ht="15.75">
+    <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="18"/>
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
@@ -16511,7 +17170,7 @@
       <c r="E54" s="18"/>
       <c r="F54" s="18"/>
     </row>
-    <row r="55" spans="1:6" ht="15.75">
+    <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="18"/>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
@@ -16519,7 +17178,7 @@
       <c r="E55" s="18"/>
       <c r="F55" s="18"/>
     </row>
-    <row r="56" spans="1:6" ht="15.75">
+    <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="18"/>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
@@ -16527,7 +17186,7 @@
       <c r="E56" s="18"/>
       <c r="F56" s="18"/>
     </row>
-    <row r="57" spans="1:6" ht="15.75">
+    <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="18"/>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
@@ -16535,7 +17194,7 @@
       <c r="E57" s="18"/>
       <c r="F57" s="18"/>
     </row>
-    <row r="58" spans="1:6" ht="15.75">
+    <row r="58" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="18"/>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
@@ -16543,7 +17202,7 @@
       <c r="E58" s="18"/>
       <c r="F58" s="18"/>
     </row>
-    <row r="59" spans="1:6" ht="15.75">
+    <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="18"/>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
@@ -16551,7 +17210,7 @@
       <c r="E59" s="18"/>
       <c r="F59" s="18"/>
     </row>
-    <row r="60" spans="1:6" ht="15.75">
+    <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="18"/>
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
@@ -16559,7 +17218,7 @@
       <c r="E60" s="18"/>
       <c r="F60" s="18"/>
     </row>
-    <row r="61" spans="1:6" ht="15.75">
+    <row r="61" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="18"/>
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
@@ -16567,7 +17226,7 @@
       <c r="E61" s="18"/>
       <c r="F61" s="18"/>
     </row>
-    <row r="62" spans="1:6" ht="15.75">
+    <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="18"/>
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
@@ -16575,7 +17234,7 @@
       <c r="E62" s="18"/>
       <c r="F62" s="18"/>
     </row>
-    <row r="63" spans="1:6" ht="15.75">
+    <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="18"/>
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
@@ -16583,7 +17242,7 @@
       <c r="E63" s="18"/>
       <c r="F63" s="18"/>
     </row>
-    <row r="64" spans="1:6" ht="15.75">
+    <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="18"/>
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
@@ -16591,7 +17250,7 @@
       <c r="E64" s="18"/>
       <c r="F64" s="18"/>
     </row>
-    <row r="65" spans="1:6" ht="15.75">
+    <row r="65" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="18"/>
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
@@ -16599,7 +17258,7 @@
       <c r="E65" s="18"/>
       <c r="F65" s="18"/>
     </row>
-    <row r="66" spans="1:6" ht="15.75">
+    <row r="66" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="18"/>
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
@@ -16607,7 +17266,7 @@
       <c r="E66" s="18"/>
       <c r="F66" s="18"/>
     </row>
-    <row r="67" spans="1:6" ht="15.75">
+    <row r="67" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="18"/>
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
@@ -16615,7 +17274,7 @@
       <c r="E67" s="18"/>
       <c r="F67" s="18"/>
     </row>
-    <row r="68" spans="1:6" ht="15.75">
+    <row r="68" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="18"/>
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
@@ -16623,7 +17282,7 @@
       <c r="E68" s="18"/>
       <c r="F68" s="18"/>
     </row>
-    <row r="69" spans="1:6" ht="15.75">
+    <row r="69" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="18"/>
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
@@ -16631,7 +17290,7 @@
       <c r="E69" s="18"/>
       <c r="F69" s="18"/>
     </row>
-    <row r="70" spans="1:6" ht="15.75">
+    <row r="70" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="18"/>
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
@@ -16639,7 +17298,7 @@
       <c r="E70" s="18"/>
       <c r="F70" s="18"/>
     </row>
-    <row r="71" spans="1:6" ht="15.75">
+    <row r="71" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="18"/>
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
@@ -16647,7 +17306,7 @@
       <c r="E71" s="18"/>
       <c r="F71" s="18"/>
     </row>
-    <row r="72" spans="1:6" ht="15.75">
+    <row r="72" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="18"/>
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
@@ -16655,7 +17314,7 @@
       <c r="E72" s="18"/>
       <c r="F72" s="18"/>
     </row>
-    <row r="73" spans="1:6" ht="15.75">
+    <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="18"/>
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
@@ -16663,7 +17322,7 @@
       <c r="E73" s="18"/>
       <c r="F73" s="18"/>
     </row>
-    <row r="74" spans="1:6" ht="15.75">
+    <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="18"/>
       <c r="B74" s="18"/>
       <c r="C74" s="18"/>
@@ -16671,7 +17330,7 @@
       <c r="E74" s="18"/>
       <c r="F74" s="18"/>
     </row>
-    <row r="75" spans="1:6" ht="15.75">
+    <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="18"/>
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
@@ -16679,7 +17338,7 @@
       <c r="E75" s="18"/>
       <c r="F75" s="18"/>
     </row>
-    <row r="76" spans="1:6" ht="15.75">
+    <row r="76" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="18"/>
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
@@ -16687,7 +17346,7 @@
       <c r="E76" s="18"/>
       <c r="F76" s="18"/>
     </row>
-    <row r="77" spans="1:6" ht="15.75">
+    <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="18"/>
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
@@ -16695,7 +17354,7 @@
       <c r="E77" s="18"/>
       <c r="F77" s="18"/>
     </row>
-    <row r="78" spans="1:6" ht="15.75">
+    <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="18"/>
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
@@ -16703,7 +17362,7 @@
       <c r="E78" s="18"/>
       <c r="F78" s="18"/>
     </row>
-    <row r="79" spans="1:6" ht="15.75">
+    <row r="79" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="18"/>
       <c r="B79" s="18"/>
       <c r="C79" s="18"/>
@@ -16711,7 +17370,7 @@
       <c r="E79" s="18"/>
       <c r="F79" s="18"/>
     </row>
-    <row r="80" spans="1:6" ht="15.75">
+    <row r="80" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="18"/>
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
@@ -16719,7 +17378,7 @@
       <c r="E80" s="18"/>
       <c r="F80" s="18"/>
     </row>
-    <row r="81" spans="1:6" ht="15.75">
+    <row r="81" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="18"/>
       <c r="B81" s="18"/>
       <c r="C81" s="18"/>
@@ -16727,7 +17386,7 @@
       <c r="E81" s="18"/>
       <c r="F81" s="18"/>
     </row>
-    <row r="82" spans="1:6" ht="15.75">
+    <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="18"/>
       <c r="B82" s="18"/>
       <c r="C82" s="18"/>
@@ -16735,7 +17394,7 @@
       <c r="E82" s="18"/>
       <c r="F82" s="18"/>
     </row>
-    <row r="83" spans="1:6" ht="15.75">
+    <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="18"/>
       <c r="B83" s="18"/>
       <c r="C83" s="18"/>
@@ -16743,7 +17402,7 @@
       <c r="E83" s="18"/>
       <c r="F83" s="18"/>
     </row>
-    <row r="84" spans="1:6" ht="15.75">
+    <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="18"/>
       <c r="B84" s="18"/>
       <c r="C84" s="18"/>
@@ -16751,7 +17410,7 @@
       <c r="E84" s="18"/>
       <c r="F84" s="18"/>
     </row>
-    <row r="85" spans="1:6" ht="15.75">
+    <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="18"/>
       <c r="B85" s="18"/>
       <c r="C85" s="18"/>
@@ -16759,7 +17418,7 @@
       <c r="E85" s="18"/>
       <c r="F85" s="18"/>
     </row>
-    <row r="86" spans="1:6" ht="15.75">
+    <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="18"/>
       <c r="B86" s="18"/>
       <c r="C86" s="18"/>
@@ -16767,7 +17426,7 @@
       <c r="E86" s="18"/>
       <c r="F86" s="18"/>
     </row>
-    <row r="87" spans="1:6" ht="15.75">
+    <row r="87" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="18"/>
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
@@ -16775,7 +17434,7 @@
       <c r="E87" s="18"/>
       <c r="F87" s="18"/>
     </row>
-    <row r="88" spans="1:6" ht="15.75">
+    <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="18"/>
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
@@ -16783,7 +17442,7 @@
       <c r="E88" s="18"/>
       <c r="F88" s="18"/>
     </row>
-    <row r="89" spans="1:6" ht="15.75">
+    <row r="89" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="18"/>
       <c r="B89" s="18"/>
       <c r="C89" s="18"/>
@@ -16791,7 +17450,7 @@
       <c r="E89" s="18"/>
       <c r="F89" s="18"/>
     </row>
-    <row r="90" spans="1:6" ht="15.75">
+    <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="18"/>
       <c r="B90" s="18"/>
       <c r="C90" s="18"/>
@@ -16799,7 +17458,7 @@
       <c r="E90" s="18"/>
       <c r="F90" s="18"/>
     </row>
-    <row r="91" spans="1:6" ht="15.75">
+    <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="18"/>
       <c r="B91" s="18"/>
       <c r="C91" s="18"/>
@@ -16807,7 +17466,7 @@
       <c r="E91" s="18"/>
       <c r="F91" s="18"/>
     </row>
-    <row r="92" spans="1:6" ht="15.75">
+    <row r="92" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="18"/>
       <c r="B92" s="18"/>
       <c r="C92" s="18"/>
@@ -16815,7 +17474,7 @@
       <c r="E92" s="18"/>
       <c r="F92" s="18"/>
     </row>
-    <row r="93" spans="1:6" ht="15.75">
+    <row r="93" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="18"/>
       <c r="B93" s="18"/>
       <c r="C93" s="18"/>
@@ -16823,7 +17482,7 @@
       <c r="E93" s="18"/>
       <c r="F93" s="18"/>
     </row>
-    <row r="94" spans="1:6" ht="15.75">
+    <row r="94" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="18"/>
       <c r="B94" s="18"/>
       <c r="C94" s="18"/>
@@ -16831,7 +17490,7 @@
       <c r="E94" s="18"/>
       <c r="F94" s="18"/>
     </row>
-    <row r="95" spans="1:6" ht="15.75">
+    <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="18"/>
       <c r="B95" s="18"/>
       <c r="C95" s="18"/>
@@ -16839,7 +17498,7 @@
       <c r="E95" s="18"/>
       <c r="F95" s="18"/>
     </row>
-    <row r="96" spans="1:6" ht="15.75">
+    <row r="96" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="18"/>
       <c r="B96" s="18"/>
       <c r="C96" s="18"/>
@@ -16847,7 +17506,7 @@
       <c r="E96" s="18"/>
       <c r="F96" s="18"/>
     </row>
-    <row r="97" spans="1:6" ht="15.75">
+    <row r="97" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="18"/>
       <c r="B97" s="18"/>
       <c r="C97" s="18"/>
@@ -16855,7 +17514,7 @@
       <c r="E97" s="18"/>
       <c r="F97" s="18"/>
     </row>
-    <row r="98" spans="1:6" ht="15.75">
+    <row r="98" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="18"/>
       <c r="B98" s="18"/>
       <c r="C98" s="18"/>
@@ -16863,7 +17522,7 @@
       <c r="E98" s="18"/>
       <c r="F98" s="18"/>
     </row>
-    <row r="99" spans="1:6" ht="15.75">
+    <row r="99" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="19"/>
       <c r="B99" s="19"/>
       <c r="C99" s="18"/>
@@ -16871,7 +17530,7 @@
       <c r="E99" s="18"/>
       <c r="F99" s="18"/>
     </row>
-    <row r="100" spans="1:6" ht="15.75">
+    <row r="100" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="19"/>
       <c r="B100" s="19"/>
       <c r="C100" s="19"/>
@@ -16879,7 +17538,7 @@
       <c r="E100" s="19"/>
       <c r="F100" s="19"/>
     </row>
-    <row r="101" spans="1:6" ht="15.75">
+    <row r="101" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C101" s="19"/>
       <c r="D101" s="19"/>
       <c r="E101" s="19"/>
@@ -16892,24 +17551,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="31.5">
+    <row r="1" spans="1:31" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>16</v>
       </c>
@@ -17004,7 +17663,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="15.75">
+    <row r="2" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
@@ -17014,7 +17673,7 @@
       </c>
       <c r="F2" s="17"/>
     </row>
-    <row r="3" spans="1:31" ht="15.75">
+    <row r="3" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
@@ -17027,7 +17686,7 @@
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
     </row>
-    <row r="4" spans="1:31" ht="15.75">
+    <row r="4" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
@@ -17036,7 +17695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="35.25" customHeight="1">
+    <row r="6" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>9</v>
       </c>
@@ -17053,7 +17712,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="15.75">
+    <row r="7" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>1</v>
       </c>
@@ -17073,7 +17732,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="15.75">
+    <row r="8" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>2</v>
       </c>
@@ -17092,7 +17751,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="15.75">
+    <row r="9" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>3</v>
       </c>
@@ -17111,7 +17770,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="15.75">
+    <row r="10" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>4</v>
       </c>
@@ -17130,7 +17789,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="15.75">
+    <row r="11" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>5</v>
       </c>
@@ -17149,7 +17808,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="15.75">
+    <row r="12" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>6</v>
       </c>
@@ -17168,7 +17827,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="15.75">
+    <row r="13" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>7</v>
       </c>
@@ -17187,7 +17846,7 @@
         <v>0.76666666666666672</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="15.75">
+    <row r="14" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>8</v>
       </c>
@@ -17206,7 +17865,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="15.75">
+    <row r="15" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>9</v>
       </c>
@@ -17225,7 +17884,7 @@
         <v>0.8666666666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="15.75">
+    <row r="16" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>10</v>
       </c>
@@ -17245,7 +17904,7 @@
       </c>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75">
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>11</v>
       </c>
@@ -17265,10 +17924,10 @@
       </c>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F18" s="17"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -17276,7 +17935,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -17284,7 +17943,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -17292,7 +17951,7 @@
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -17300,7 +17959,7 @@
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -17308,7 +17967,7 @@
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -17316,7 +17975,7 @@
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -17324,7 +17983,7 @@
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -17332,7 +17991,7 @@
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -17340,7 +17999,7 @@
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -17348,7 +18007,7 @@
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -17356,7 +18015,7 @@
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -17364,7 +18023,7 @@
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
